--- a/batch_experiments/2026_02_04/T3600/V5_01/scores_summary.xlsx
+++ b/batch_experiments/2026_02_04/T3600/V5_01/scores_summary.xlsx
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
+          <t>FEASIBLE</t>
         </is>
       </c>
     </row>
